--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="381">
   <si>
     <t>Поз. обозначение</t>
   </si>
@@ -99,7 +99,7 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19C, C19D, C19G, C19B, C19F, C19H, C19E, C19A, C20H, C20D, C20F, C20G, C20C, C20E, C20A, C20B, C21D, C21B, C21E, C21F, C21A, C21C, C21G, C21H, C22E, C22D, C22C, C22F, C22G, C22H, C22A, C22B, C23D, C23A, C23C, C23B, C23G, C23H, C23F, C23E, C24H, C24A, C24C, C24B, C24G, C24D, C24F, C24E</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -225,9 +225,6 @@
     <t>SO-8</t>
   </si>
   <si>
-    <t>MORNSUN Guangzhou Science &amp; Technology Co., Ltd.</t>
-  </si>
-  <si>
     <t>DD1</t>
   </si>
   <si>
@@ -285,7 +282,7 @@
     <t>2410</t>
   </si>
   <si>
-    <t>Littelfuse, Inc.</t>
+    <t>Littelfuse</t>
   </si>
   <si>
     <t>FP1</t>
@@ -300,7 +297,7 @@
     <t>Bourns</t>
   </si>
   <si>
-    <t>FU2</t>
+    <t>FU2, FU4</t>
   </si>
   <si>
     <t>ZH242</t>
@@ -309,6 +306,12 @@
     <t>держатель</t>
   </si>
   <si>
+    <t>FU3, FU5</t>
+  </si>
+  <si>
+    <t>ZH250</t>
+  </si>
+  <si>
     <t>FV5</t>
   </si>
   <si>
@@ -390,15 +393,24 @@
     <t>BR-2325/2HAN</t>
   </si>
   <si>
+    <t>GB4</t>
+  </si>
+  <si>
+    <t>BH-25F-1</t>
+  </si>
+  <si>
+    <t>держатель, CR2032</t>
+  </si>
+  <si>
+    <t>Adam Tech</t>
+  </si>
+  <si>
     <t>GB3</t>
   </si>
   <si>
     <t>DS1092-04-B6P</t>
   </si>
   <si>
-    <t>держатель, CR2032</t>
-  </si>
-  <si>
     <t>Connfly</t>
   </si>
   <si>
@@ -510,7 +522,7 @@
     <t>Cree</t>
   </si>
   <si>
-    <t>J1, J2, J3, J4, J5, J6</t>
+    <t>J1</t>
   </si>
   <si>
     <t>Перемычка</t>
@@ -555,7 +567,7 @@
     <t>V23105A5476A201</t>
   </si>
   <si>
-    <t>L1</t>
+    <t>L1, L3, L4, L5</t>
   </si>
   <si>
     <t>Индуктивность</t>
@@ -567,24 +579,51 @@
     <t>чип 1812, 10мкГн ±10%, 250мА</t>
   </si>
   <si>
-    <t>L2</t>
+    <t>L9, L10, L12</t>
   </si>
   <si>
     <t>Дроссель</t>
   </si>
   <si>
+    <t>SRN6045TA-2R2Y</t>
+  </si>
+  <si>
+    <t>2.2мкГн ±30%, 6А</t>
+  </si>
+  <si>
+    <t>L11</t>
+  </si>
+  <si>
+    <t>SRR0604-100ML</t>
+  </si>
+  <si>
+    <t>10мкГн ±20%, 1.3А</t>
+  </si>
+  <si>
+    <t>L2, L6, L7, L8</t>
+  </si>
+  <si>
     <t>SRU1048-470Y</t>
   </si>
   <si>
     <t>47мкГн ±30%, 1.5А</t>
   </si>
   <si>
+    <t>R14A, R14B, R14C, R14E, R14D, R14F, R14H, R14G, R15A, R15D, R15C, R15B, R15E, R15H, R15F, R15G, R16A, R16D, R16G, R16B, R16C, R16F, R16H, R16E, R17D, R17A, R17E, R17G, R17B, R17H, R17C, R17F, R18C, R18E, R18H, R18F, R18A, R18D, R18B, R18G, R19D, R19F, R19C, R19E, R19H, R19A, R19B, R19G</t>
+  </si>
+  <si>
+    <t>Резистор</t>
+  </si>
+  <si>
+    <t>RC0603FR-071KL</t>
+  </si>
+  <si>
+    <t>чип 0603, 1кОм ±1%</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>Резистор</t>
-  </si>
-  <si>
     <t>RC0603JR-0710KL</t>
   </si>
   <si>
@@ -621,6 +660,42 @@
     <t>чип 0603, 47кОм ±0.5%, ±25ppm/°C</t>
   </si>
   <si>
+    <t>R4, R5, R6</t>
+  </si>
+  <si>
+    <t>RC0603JR-07100KL</t>
+  </si>
+  <si>
+    <t>чип 0603, 100кОм ±5%</t>
+  </si>
+  <si>
+    <t>R7, R8</t>
+  </si>
+  <si>
+    <t>RC0603JR-07200KL</t>
+  </si>
+  <si>
+    <t>чип 0603, 200кОм ±5%</t>
+  </si>
+  <si>
+    <t>R9, R10, R11, R12</t>
+  </si>
+  <si>
+    <t>RC0603JR-07300KL</t>
+  </si>
+  <si>
+    <t>чип 0603, 300кОм ±5%</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>RC0603JR-07470KL</t>
+  </si>
+  <si>
+    <t>чип 0603, 470кОм ±5%</t>
+  </si>
+  <si>
     <t>RK2</t>
   </si>
   <si>
@@ -828,7 +903,7 @@
     <t>двунаправ., 32В, 2А, 15мкА</t>
   </si>
   <si>
-    <t>ST Microelectronics</t>
+    <t>STMicroelectronics</t>
   </si>
   <si>
     <t>VS2</t>
@@ -1029,7 +1104,16 @@
     <t>ESKA Erich Schweizer</t>
   </si>
   <si>
-    <t>один запасной</t>
+    <t>один запасной|</t>
+  </si>
+  <si>
+    <t>0215002.MXP</t>
+  </si>
+  <si>
+    <t>плавкий, цил. 5*20, 2А, 250В, 11.680А²с, медленный</t>
+  </si>
+  <si>
+    <t>Littlefuse</t>
   </si>
   <si>
     <t>CR2032</t>
@@ -1066,12 +1150,6 @@
   </si>
   <si>
     <t>огр. тока 3А</t>
-  </si>
-  <si>
-    <t>BH-25F-1</t>
-  </si>
-  <si>
-    <t>Adam Tech</t>
   </si>
   <si>
     <t>BS-7</t>
@@ -1146,11 +1224,11 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1452,242 +1530,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="G7" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
@@ -1716,1666 +1776,1695 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="B26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="2">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="B36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="2">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2" t="s">
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2" t="s">
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2" t="s">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="B43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G41" s="2">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2" t="s">
+      <c r="F45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="F46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="B47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
+      <c r="F47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2" t="s">
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="G52" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="2">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G51" s="2">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G54" s="2">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2" t="s">
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G61" s="2">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="4" t="s">
+      <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C71" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
+      <c r="B72" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="E72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G71" s="2">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="2" t="s">
+      <c r="E73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B74" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="2" t="s">
+      <c r="B75" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="E75" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2">
-        <v>1</v>
-      </c>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2"/>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G81" s="2">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G82" s="2">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="E83" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2" t="s">
+      <c r="B84" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G83" s="2">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="E84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="B85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D85" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="B86" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="2">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G86" s="2">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G87" s="2">
-        <v>1</v>
-      </c>
-      <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G88" s="2">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2"/>
+      <c r="F93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3384,124 +3473,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3510,150 +3604,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>345</v>
+      <c r="F1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>347</v>
+      <c r="H2" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>349</v>
+      <c r="H3" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
@@ -3664,6 +3777,11 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
@@ -99,7 +99,7 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19C, C19D, C19G, C19B, C19F, C19H, C19E, C19A, C20H, C20D, C20F, C20G, C20C, C20E, C20A, C20B, C21D, C21B, C21E, C21F, C21A, C21C, C21G, C21H, C22E, C22D, C22C, C22F, C22G, C22H, C22A, C22B, C23D, C23A, C23C, C23B, C23G, C23H, C23F, C23E, C24H, C24A, C24C, C24B, C24G, C24D, C24F, C24E</t>
+    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19E, C19D, C19F, C19C, C19B, C19G, C19A, C19H, C20A, C20B, C20H, C20C, C20E, C20F, C20G, C20D, C21G, C21H, C21A, C21C, C21E, C21B, C21D, C21F, C22H, C22E, C22G, C22C, C22B, C22F, C22D, C22A, C23E, C23A, C23F, C23C, C23G, C23B, C23H, C23D, C24B, C24A, C24C, C24D, C24E, C24H, C24G, C24F</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -609,7 +609,7 @@
     <t>47мкГн ±30%, 1.5А</t>
   </si>
   <si>
-    <t>R14A, R14B, R14C, R14E, R14D, R14F, R14H, R14G, R15A, R15D, R15C, R15B, R15E, R15H, R15F, R15G, R16A, R16D, R16G, R16B, R16C, R16F, R16H, R16E, R17D, R17A, R17E, R17G, R17B, R17H, R17C, R17F, R18C, R18E, R18H, R18F, R18A, R18D, R18B, R18G, R19D, R19F, R19C, R19E, R19H, R19A, R19B, R19G</t>
+    <t>R14D, R14C, R14E, R14F, R14G, R14A, R14H, R14B, R15D, R15A, R15E, R15B, R15C, R15G, R15H, R15F, R16B, R16E, R16H, R16F, R16D, R16C, R16A, R16G, R17F, R17C, R17G, R17E, R17H, R17D, R17A, R17B, R18H, R18G, R18D, R18B, R18C, R18A, R18E, R18F, R19C, R19D, R19E, R19A, R19F, R19G, R19B, R19H</t>
   </si>
   <si>
     <t>Резистор</t>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
@@ -99,7 +99,7 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19E, C19D, C19F, C19C, C19B, C19G, C19A, C19H, C20A, C20B, C20H, C20C, C20E, C20F, C20G, C20D, C21G, C21H, C21A, C21C, C21E, C21B, C21D, C21F, C22H, C22E, C22G, C22C, C22B, C22F, C22D, C22A, C23E, C23A, C23F, C23C, C23G, C23B, C23H, C23D, C24B, C24A, C24C, C24D, C24E, C24H, C24G, C24F</t>
+    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19A, C19B, C19C, C19E, C19D, C19G, C19F, C19H, C20H, C20A, C20B, C20G, C20D, C20E, C20F, C20C, C21B, C21A, C21G, C21D, C21F, C21C, C21H, C21E, C22A, C22D, C22E, C22H, C22G, C22F, C22B, C22C, C23B, C23F, C23D, C23A, C23H, C23G, C23C, C23E, C24G, C24F, C24H, C24E, C24D, C24C, C24A, C24B</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -609,7 +609,7 @@
     <t>47мкГн ±30%, 1.5А</t>
   </si>
   <si>
-    <t>R14D, R14C, R14E, R14F, R14G, R14A, R14H, R14B, R15D, R15A, R15E, R15B, R15C, R15G, R15H, R15F, R16B, R16E, R16H, R16F, R16D, R16C, R16A, R16G, R17F, R17C, R17G, R17E, R17H, R17D, R17A, R17B, R18H, R18G, R18D, R18B, R18C, R18A, R18E, R18F, R19C, R19D, R19E, R19A, R19F, R19G, R19B, R19H</t>
+    <t>R14G, R14B, R14A, R14C, R14D, R14E, R14F, R14H, R15C, R15H, R15D, R15E, R15F, R15A, R15G, R15B, R16B, R16C, R16A, R16D, R16E, R16F, R16G, R16H, R17H, R17A, R17B, R17C, R17D, R17E, R17F, R17G, R18C, R18D, R18G, R18E, R18F, R18H, R18A, R18B, R19A, R19H, R19C, R19F, R19B, R19E, R19D, R19G</t>
   </si>
   <si>
     <t>Резистор</t>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="383">
   <si>
     <t>Поз. обозначение</t>
   </si>
@@ -99,7 +99,7 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19A, C19B, C19C, C19E, C19D, C19G, C19F, C19H, C20H, C20A, C20B, C20G, C20D, C20E, C20F, C20C, C21B, C21A, C21G, C21D, C21F, C21C, C21H, C21E, C22A, C22D, C22E, C22H, C22G, C22F, C22B, C22C, C23B, C23F, C23D, C23A, C23H, C23G, C23C, C23E, C24G, C24F, C24H, C24E, C24D, C24C, C24A, C24B</t>
+    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19F, C19A, C19E, C19D, C19C, C19G, C19B, C19H, C20C, C20B, C20A, C20F, C20G, C20H, C20D, C20E, C21D, C21A, C21C, C21F, C21H, C21E, C21G, C21B, C22H, C22G, C22F, C22E, C22D, C22B, C22C, C22A, C23C, C23D, C23E, C23F, C23B, C23G, C23A, C23H, C24B, C24C, C24D, C24E, C24A, C24G, C24F, C24H</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -609,7 +609,7 @@
     <t>47мкГн ±30%, 1.5А</t>
   </si>
   <si>
-    <t>R14G, R14B, R14A, R14C, R14D, R14E, R14F, R14H, R15C, R15H, R15D, R15E, R15F, R15A, R15G, R15B, R16B, R16C, R16A, R16D, R16E, R16F, R16G, R16H, R17H, R17A, R17B, R17C, R17D, R17E, R17F, R17G, R18C, R18D, R18G, R18E, R18F, R18H, R18A, R18B, R19A, R19H, R19C, R19F, R19B, R19E, R19D, R19G</t>
+    <t>R14G, R14F, R14A, R14B, R14C, R14H, R14D, R14E, R15A, R15C, R15B, R15D, R15G, R15H, R15F, R15E, R16E, R16C, R16F, R16B, R16A, R16G, R16D, R16H, R17H, R17B, R17G, R17E, R17A, R17D, R17C, R17F, R18G, R18H, R18F, R18D, R18A, R18E, R18B, R18C, R19H, R19D, R19B, R19F, R19E, R19G, R19A, R19C</t>
   </si>
   <si>
     <t>Резистор</t>
@@ -1129,6 +1129,12 @@
   </si>
   <si>
     <t>Изнач. производитель</t>
+  </si>
+  <si>
+    <t>Изнач. кол-во</t>
+  </si>
+  <si>
+    <t>Зам. кол-во</t>
   </si>
   <si>
     <t>Зам. номинал</t>
@@ -3612,12 +3618,12 @@
   <cols>
     <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3628,22 +3634,22 @@
         <v>370</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3663,24 +3669,24 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3708,10 +3714,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="F5" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3739,10 +3745,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="F7" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3762,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
+++ b/example/AD project/project outputs/Bill of Materials/BCAD.123456.001 СК [default].xlsx
@@ -99,7 +99,7 @@
     <t>YAGEO</t>
   </si>
   <si>
-    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19F, C19A, C19E, C19D, C19C, C19G, C19B, C19H, C20C, C20B, C20A, C20F, C20G, C20H, C20D, C20E, C21D, C21A, C21C, C21F, C21H, C21E, C21G, C21B, C22H, C22G, C22F, C22E, C22D, C22B, C22C, C22A, C23C, C23D, C23E, C23F, C23B, C23G, C23A, C23H, C24B, C24C, C24D, C24E, C24A, C24G, C24F, C24H</t>
+    <t>C2, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19C, C19H, C19G, C19A, C19B, C19D, C19E, C19F, C20G, C20D, C20H, C20E, C20F, C20B, C20C, C20A, C21C, C21D, C21E, C21F, C21G, C21A, C21B, C21H, C22H, C22A, C22B, C22D, C22C, C22E, C22G, C22F, C23D, C23C, C23A, C23B, C23F, C23H, C23G, C23E, C24F, C24H, C24G, C24E, C24A, C24B, C24C, C24D</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -609,7 +609,7 @@
     <t>47мкГн ±30%, 1.5А</t>
   </si>
   <si>
-    <t>R14G, R14F, R14A, R14B, R14C, R14H, R14D, R14E, R15A, R15C, R15B, R15D, R15G, R15H, R15F, R15E, R16E, R16C, R16F, R16B, R16A, R16G, R16D, R16H, R17H, R17B, R17G, R17E, R17A, R17D, R17C, R17F, R18G, R18H, R18F, R18D, R18A, R18E, R18B, R18C, R19H, R19D, R19B, R19F, R19E, R19G, R19A, R19C</t>
+    <t>R14G, R14H, R14C, R14F, R14B, R14E, R14A, R14D, R15F, R15G, R15E, R15B, R15H, R15D, R15C, R15A, R16E, R16H, R16D, R16B, R16F, R16A, R16C, R16G, R17G, R17H, R17F, R17A, R17C, R17D, R17B, R17E, R18F, R18G, R18E, R18A, R18H, R18B, R18D, R18C, R19A, R19B, R19C, R19D, R19E, R19H, R19F, R19G</t>
   </si>
   <si>
     <t>Резистор</t>
